--- a/ENG_crawler/articles/ENG_content_20241211.xlsx
+++ b/ENG_crawler/articles/ENG_content_20241211.xlsx
@@ -484,12 +484,12 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 提供更高效能和更好性價比的通用型EC2實例選擇。
-2. 滿足不同規模和資源需求的工作負載，從小型應用到大規模高CPU使用率的任務。
---解決的方式--
-1. 推出M7i-flex和M7i實例，採用定制第4代Intel Xeon可擴展處理器，提供比其他雲提供商高達15%的性能提升。
-2. M7i-flex實例針對一般工作負載優化，提供large到8xlarge的常見規格，比M6i提供高達19%的性價比提升。
-3. M7i實例提供更大規格（最高48xlarge）和裸機選項，支持Intel內置加速器，適合需要持續高CPU使用率的工作負載，比M6i提供高達15%的性價比提升。</t>
+1. 提供更高效能和更好價格效能比的通用型EC2實例選擇。
+2. 滿足不同規模和資源需求的工作負載，從小型應用到需要高CPU使用率的大型工作負載。
+--解決的方式--
+1. 推出M7i-flex和M7i實例，採用客製化第4代Intel Xeon可擴展處理器，提供比其他雲端供應商高出15%的性能。
+2. M7i-flex實例提供large到8xlarge的常見規格，適合未充分利用所有計算資源的應用，比M6i提供高達19%的價格效能比。
+3. M7i實例提供更大規格（最高48xlarge）和裸機選項，適合需要持續高CPU使用率的工作負載，並支持Intel內建加速器，優化特定工作負載性能。</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 需要更強大的GPU實例來處理大型語言模型、多模態基礎模型和複雜的生成式AI應用。
-2. 現有的GPU實例在處理大規模AI推理工作負載時性能不足。
---解決的方式--
-1. 推出ml.p5e實例，配備8個NVIDIA H200 Tensor Core GPU，總共1128 GB高帶寬GPU內存，適合處理100B+參數的大型語言模型和複雜的生成式AI任務。
-2. 推出ml.g6e實例，配備8個NVIDIA L40S Tensor Core GPU，每個GPU有48 GB內存，可用於運行最多13B參數的大型語言模型和擴散模型。
-3. 這些新實例現已在美國東部（俄亥俄州）和美國西部（俄勒岡州）的Amazon SageMaker上可用，客戶可以通過AWS Service Quotas請求提高限額來使用。</t>
+1. 需要高效能的基礎設施來支援大型語言模型、多模態基礎模型和複雜的生成式AI應用的推論工作負載。
+2. 現有的GPU實例可能無法滿足處理參數量達100B+的大型模型和高度計算密集型AI任務的需求。
+--解決的方式--
+1. 推出基於NVIDIA H200 GPU的ml.p5e.48xlarge實例，提供1128 GB高頻寬GPU記憶體、30 TB本地NVMe SSD存儲和2 TiB系統記憶體，適用於大規模AI推論工作負載。
+2. 引入基於NVIDIA L40S GPU的ml.g6e實例，相比ml.g5實例性能提升2.5倍，適合運行最多13B參數的大型語言模型和擴散模型。
+3. 這些新實例現已在美國東部（俄亥俄州）和美國西部（俄勒岡州）的Amazon SageMaker上可用，客戶可通過AWS Service Quotas申請提高使用限額。</t>
         </is>
       </c>
     </row>
@@ -554,8 +554,8 @@
 2. PCI DSS 是一個合規框架，為安全處理信用卡和借記卡信息提供了一套規則和指南。
 --解決的方式--
 1. Security Hub PCI DSS v4.0.1 包含 144 個自動化控制項，可持續檢查 PCI DSS 要求，現已在所有公共 AWS 區域和 AWS GovCloud (US) 區域中可用。
-2. 建議使用 Security Hub 中央配置來快速在整個 AWS 環境中啟用新標準，可以一次性在部分或所有組織帳戶和 AWS 區域中啟用。
-3. 如果當前使用 PCI v3.2.1 標準但想轉換到 v4.0.1，應先啟用新版本再禁用舊版本，以避免安全檢查出現空檔。</t>
+2. 建議使用 Security Hub 中央配置來快速在整個 AWS 環境中啟用新標準，可以一次性在部分或所有組織帳戶和所有與 Security Hub 關聯的 AWS 區域中啟用標準。
+3. 如果目前使用 PCI v3.2.1 標準但想轉換到 v4.0.1，建議先啟用新版本再禁用舊版本，以避免安全檢查出現空檔。</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 改善移動設備上的客戶聊天體驗，即使客戶不在活躍聊天狀態也能及時收到新消息通知。
+1. 改善移動設備上的客戶聊天體驗，確保客戶不會錯過重要訊息。
 2. 提高客戶服務效率，加快問題解決速度。
 --解決的方式--
 1. Amazon Connect 現在支持 iOS 和 Android 設備的移動聊天推送通知功能。
-2. 通過 Amazon Connect Chat SDK 或使用通信小部件的 webview 解決方案，可以輕鬆實現移動聊天體驗。
-3. 該功能已在多個 AWS 區域推出，包括美國東部、西部、加拿大、亞太地區和歐洲的多個數據中心。</t>
+2. 即使客戶不在活躍聊天中，也能在收到代理或聊天機器人的新訊息時立即收到通知。
+3. 該功能已在多個 AWS 區域推出，包括美國東部、西部、加拿大、亞太地區和歐洲的多個地區。</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 提供更高效能和能源效率的通用工作負載運算實例。
-2. 滿足應用服務器、微服務、遊戲服務器、中型數據存儲和緩存群等工作負載的需求。
---解決的方式--
-1. 在歐洲（西班牙）區域推出由AWS Graviton4處理器驅動的Amazon EC2 M8g實例，相比Graviton3實例性能提升30%。
-2. M8g實例基於AWS Nitro系統構建，提供12種不同的實例大小，包括兩種裸機大小，並支持高達50 Gbps的增強網絡帶寬。
-3. 與Graviton3相比，Graviton4處理器在數據庫、Web應用和大型Java應用方面分別提升了40%、30%和45%的性能，同時提供更大的實例規格。</t>
+1. 提供更高效能和能源效率的通用工作負載執行環境。
+2. 滿足對更大規模實例和更高網絡頻寬的需求。
+--解決的方式--
+1. 在歐洲（西班牙）地區推出基於AWS Graviton4處理器的Amazon EC2 M8g實例，相比Graviton3實例提供高達30%的性能提升。
+2. M8g實例提供12種不同規格，包括裸機選項，最高可提供3倍於M7g實例的vCPU和內存，以及高達50 Gbps的增強網絡頻寬。
+3. 基於AWS Nitro系統構建，通過專用硬件和軟件卸載CPU虛擬化、存儲和網絡功能，提高工作負載的性能和安全性。</t>
         </is>
       </c>
     </row>
@@ -653,8 +653,7 @@
 2. 改善對非母語者和各種地區口音的識別準確度，使互動更具包容性和可靠性。
 --解決的方式--
 1. 推出新的多語言串流語音識別模型（ASR-2.0），分為歐洲語言組（包括葡萄牙語、加泰羅尼亞語、法語、意大利語、德語和西班牙語）和亞太語言組（包括中文、韓語和日語）。
-2. 利用每個語言組內共享的語言模式來提高識別準確性，特別是在識別帳號、確認號碼、序列號和產品代碼等方面。
-3. 將新模型設為Amazon Lex支持語言的標準，客戶只需重建現有的機器人即可利用這些改進。</t>
+2. 利用每個語言組內共享的語言模式來提高識別準確性，並將這些模型設為Amazon Lex支持語言的標準，客戶只需重建現有的機器人即可使用這些改進。</t>
         </is>
       </c>
     </row>
@@ -682,12 +681,12 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 需要在 AWS GovCloud (US) 區域中支持更複雜的數據模型和索引結構。
-2. 客戶希望能夠以更貼近現實世界的方式建模數據，並提高數據存儲和查詢的效率。
---解決的方式--
-1. Amazon Keyspaces 在 AWS GovCloud (US-East) 和 (US-West) 區域新增了對凍結集合（frozen collections）的支持。
-2. 凍結集合允許在主鍵中包含集合類型，並支持嵌套集合，使數據模型更靈活和高效。
-3. AWS 控制台提供了直觀的界面，讓用戶可以輕鬆創建和查看多層嵌套的集合結構。</t>
+1. Amazon Keyspaces 需要在 AWS GovCloud (US) 區域支援更複雜的資料模型和索引功能。
+2. 用戶需要能夠在主鍵中使用集合類型，以及創建嵌套集合來更有效地模擬真實世界的資料。
+--解決的方式--
+1. Amazon Keyspaces 在 AWS GovCloud (US-East) 和 (US-West) 區域新增了對凍結集合（frozen collections）的支援。
+2. 凍結集合允許在主鍵中使用集合類型，並支持創建嵌套集合，使數據模型更加靈活和高效。
+3. AWS 控制台提供了直觀的界面，讓用戶可以輕鬆創建和查看多層嵌套的集合。</t>
         </is>
       </c>
     </row>
@@ -716,10 +715,11 @@
         <is>
           <t>--解決的問題--
 1. 為亞太地區（馬來西亞）的客戶提供全面的網絡安全保護，特別是針對Amazon Virtual Private Clouds (VPCs)。
---解決的方式--
-1. 在亞太地區（馬來西亞）推出AWS Network Firewall，這是一個易於部署的託管防火牆服務。
-2. AWS Network Firewall能夠根據網絡流量自動擴展，提供高可用性保護，無需設置和維護底層基礎設施。
-3. 該服務與AWS Firewall Manager整合，為用戶提供跨多個AWS帳戶的防火牆策略的中央可見性和控制。</t>
+2. 簡化網絡防火牆的部署和管理過程，減少客戶在基礎設施維護上的負擔。
+--解決的方式--
+1. 在亞太地區（馬來西亞）推出AWS Network Firewall服務，提供易於部署的託管防火牆解決方案。
+2. 實現自動擴展功能，根據網絡流量自動調整，確保高可用性保護，無需手動設置和維護基礎設施。
+3. 與AWS Firewall Manager整合，為多個AWS帳戶提供集中的可見性和控制，方便管理防火牆策略。</t>
         </is>
       </c>
     </row>
@@ -748,11 +748,11 @@
         <is>
           <t>--解決的問題--
 1. 需要更高性能和能源效率的記憶體密集型工作負載，如資料庫、記憶體快取和即時大數據分析。
-2. 現有的 Graviton3 處理器實例在某些應用場景下性能不足。
---解決的方式--
-1. 推出由 AWS Graviton4 處理器驅動的 Amazon EC2 R8g 實例，相比 Graviton3 實例提供高達 30% 的性能提升。
-2. R8g 實例提供更大的實例規格，vCPU 數量最多可達 48xlarge，記憶體最高可達 1.5TB，並支援高達 50 Gbps 的增強網路頻寬。
-3. 基於 AWS Nitro 系統構建，將 CPU 虛擬化、存儲和網路功能卸載到專用硬體和軟體，以提高工作負載的性能和安全性。</t>
+2. 現有的 Graviton3 基礎實例在某些應用場景下性能不足。
+--解決的方式--
+1. 在亞太地區（東京）推出基於 AWS Graviton4 處理器的 Amazon EC2 R8g 實例，相比 Graviton3 實例提供高達 30% 的性能提升。
+2. R8g 實例提供更大的實例規格，vCPU 數量最多可達 48xlarge，記憶體最高可達 1.5TB，並支持 12 種不同的實例大小，包括兩種裸機規格。
+3. 新實例基於 AWS Nitro 系統構建，可卸載 CPU 虛擬化、存儲和網絡功能到專用硬件和軟件，從而提高工作負載的性能和安全性。</t>
         </is>
       </c>
     </row>
@@ -779,13 +779,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>--解決的問題--
-1. 提高Amazon Simple Email Services (SES)的可靠性和彈性，特別是在區域性中斷時的電子郵件發送能力。
-2. 簡化多區域設置和管理，減少手動同步和配置的需求。
---解決的方式--
-1. 引入Global Endpoints功能，允許客戶選擇主要和次要AWS商業區域，在正常情況下平均分配電子郵件發送工作負載。
-2. 自動同步已驗證的身份、批准的發送限制和配置集，無需手動設置多區域環境。
-3. 使用多區域端點ID代替單一區域端點ID，無需更改現有的發送配置，並與專用IP和虛擬交付管理器等SES功能兼容。</t>
+          <t>Here's the summary in Traditional Chinese following the specified rules and format:
+--解決的問題--
+1. 解決單一區域 Amazon SES 服務中斷時可能導致的電子郵件發送中斷問題。
+2. 簡化多區域 SES 設置的複雜性，包括身份驗證、發送限制和配置集的同步。
+--解決的方式--
+1. 引入 Global Endpoints 功能，允許客戶選擇主要和次要區域，在正常情況下平均分配電子郵件發送工作負載。
+2. 當一個區域出現問題時，自動將流量轉移到另一個區域，確保電子郵件發送的連續性，無需手動干預。
+3. 提供多區域端點 ID，客戶無需更改發送配置即可使用，並與現有 SES 功能（如專用 IP 和虛擬交付管理器）兼容。</t>
         </is>
       </c>
     </row>
@@ -813,12 +814,12 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>--解決的問題--
-1. 使用者需要在Amazon Keyspaces中支援Cassandra的自定義類型(UDTs)，以便無需修改架構即可繼續使用Cassandra工作負載中定義的自定義數據類型。
-2. 用戶希望能在表的主鍵中使用UDTs，以便能夠在更複雜和豐富的數據類型上索引數據。
---解決的方式--
-1. Amazon Keyspaces現在在AWS GovCloud (US-East)和AWS GovCloud (US-West)區域支援Cassandra的自定義類型(UDTs)。
-2. AWS控制台增強了原始Cassandra體驗，允許用戶輕鬆創建和可視化多層嵌套的UDTs。
-3. UDTs支援現已在所有商業AWS區域和AWS GovCloud (US)區域中的Amazon Keyspaces服務中可用。</t>
+1. 使用者在將Apache Cassandra工作負載遷移到Amazon Keyspaces時，需要保留自定義數據類型（UDTs）的功能。
+2. 需要在AWS GovCloud (US-East)和AWS GovCloud (US-West)區域提供UDTs支持，以滿足政府和高度管制行業的需求。
+--解決的方式--
+1. Amazon Keyspaces現在在AWS GovCloud (US)區域支持Cassandra的用戶定義類型（UDTs），允許用戶無需修改架構即可繼續使用自定義數據類型。
+2. 新功能允許在表的主鍵中使用UDTs，使用戶能夠在更複雜和豐富的數據類型上索引數據，並創建更高效的數據模型。
+3. AWS控制台增強了原始Cassandra體驗，允許用戶輕鬆創建和可視化多層嵌套的UDTs，提高了數據建模的靈活性和效率。</t>
         </is>
       </c>
     </row>
